--- a/biology/Médecine/Liste_de_médicaments_liés_à_la_fertilité/Liste_de_médicaments_liés_à_la_fertilité.xlsx
+++ b/biology/Médecine/Liste_de_médicaments_liés_à_la_fertilité/Liste_de_médicaments_liés_à_la_fertilité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_li%C3%A9s_%C3%A0_la_fertilit%C3%A9</t>
+          <t>Liste_de_médicaments_liés_à_la_fertilité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sens large, les médicaments liés à la fertilité peuvent inclure toute médication qui favorise la fertilité, mais dans un sens spécifique, il s'agit d'agents stimulant le développement folliculaire de l'ovaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9dicaments_li%C3%A9s_%C3%A0_la_fertilit%C3%A9</t>
+          <t>Liste_de_médicaments_liés_à_la_fertilité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agents stimulant l'activité ovarienne peuvent être classés comme suit :
 Gonadotropin-releasing hormone
